--- a/misc/Database.xlsx
+++ b/misc/Database.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Symptom Name</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Directions of Use</t>
+  </si>
+  <si>
+    <t>filler</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +506,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,6 +529,12 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -534,6 +543,12 @@
       <c r="A3" t="s">
         <v>14</v>
       </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
@@ -542,6 +557,12 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -550,6 +571,12 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
@@ -557,6 +584,12 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
